--- a/data/trans_orig/IP44S2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP44S2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CA29196-2495-409C-A8A2-FED36E49B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF453F11-5DAA-4145-BDB4-8E2D7A239654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4F648F2-B45F-4813-8814-0C14EDA1656C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E007AE65-FD92-4CCC-9B66-A760E43BD860}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="35">
   <si>
     <t>Adultos según si han tenido o no algún retraso en el pago de recibos como en 2023 (Tasa respuesta: 0,21%)</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>19,24%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -555,7 +552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7497750F-4CDD-436B-B53C-24D23645F300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF0543B-898A-45C8-845D-3F429664EEED}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1601,7 +1598,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,7 +1654,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
